--- a/Project Kandy/Language/language.xlsx
+++ b/Project Kandy/Language/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GodotGames\Project-Kandy\Project Kandy\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78457AF-2448-4BB6-AC1C-3928DDDB6F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25C8EB5-DA9F-4E0C-B8C4-DB3D42A25E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7430F064-4AAD-4790-95EA-562F930CDB8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>keys</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Quit</t>
+  </si>
+  <si>
+    <t>Retornar</t>
+  </si>
+  <si>
+    <t>Resume</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687FB470-8078-4218-825E-B8ADC31FF4E2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +522,15 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
